--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunningcl-my.sharepoint.com/personal/felipe_quinteros_tunning_cl/Documents/Escritorio/proyecto de automatiacion/data/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_667DF1ABD3005175A7193C11595ED87656CC4661" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014790B2-FB87-4E9F-BD83-74EE42C1E3CD}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,21 +420,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Correo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>luis.rivas@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Falló la navegación a 'Me'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sergio.faundez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nicolas.jara@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nicolas.garcia@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hector.albarran@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>emerson.flores@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Felipe.torres@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>damian.lizana@tunning.cl/ / damian.lizana</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ignacio.sanchez@tunning.cl// ISanchezM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>humberto.galaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>benjamin.saavedra@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>diego.abarca@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cristian.pena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>felipe.diaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>angel.olguin@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>david.barrales@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>emilio.leon@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pablo.villalobos@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>martin.vergara@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>felipe.beroiz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ignacio.cornejo@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>andrew.aracena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pablo.madrid@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ignacio.cancino@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sebastian.reyes@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>salvador.araya@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>damian.carroza@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ignacio.barrera@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>John.bell-smythe@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jonathan.barria@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>boris.jelincic@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>maximiliano.godoy@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>braulio.vasquez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>guido.hurtado@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>felipe.sanhueza@tunning.cl// FELIPESANHUEZAL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Estado</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos en Progreso</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos Completados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,7 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Falló la navegación a 'Me'</t>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -468,6 +488,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +502,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +516,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +530,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +544,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +558,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +572,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +586,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +600,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +614,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +628,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +642,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +670,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +684,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +698,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +712,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +726,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +740,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +754,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +768,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +782,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +796,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +810,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +824,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +838,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +852,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +866,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +880,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +894,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +908,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +922,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +936,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +950,8 @@
           <t>Login fallido</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,514 +444,366 @@
           <t>Estado</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cursos en Progreso</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cursos Completados</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>luis.rivas@tunning.cl</t>
+          <t>maximiliano.godoy@tunning.cl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceso completado</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.70)
+Stacktrace:
+	(No symbol) [0x00007FF721D36B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72205F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF722102DE6+643190]
+	(No symbol) [0x00007FF721BF7657]
+	(No symbol) [0x00007FF721C81CE5]
+	(No symbol) [0x00007FF721C9670A]
+	(No symbol) [0x00007FF721C7BE03]
+	(No symbol) [0x00007FF721C52984]
+	(No symbol) [0x00007FF721C51E30]
+	(No symbol) [0x00007FF721C52571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200BB34+1094964]
+	(No symbol) [0x00007FF721D732C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200AF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200AAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E10CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E0CA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E0CB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E021C6+401382]
+	BaseThreadInitThunk [0x00007FF98D21E8D7+23]
+	RtlUserThreadStart [0x00007FF98F0FFBCC+44]
+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sergio.faundez@tunning.cl</t>
+          <t>braulio.vasquez@tunning.cl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nicolas.jara@tunning.cl</t>
+          <t>guido.hurtado@tunning.cl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nicolas.garcia@tunning.cl</t>
+          <t>luis.rivas@tunning.cl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hector.albarran@tunning.cl</t>
+          <t>sergio.faundez@tunning.cl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>emerson.flores@tunning.cl</t>
+          <t>nicolas.jara@tunning.cl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Felipe.torres@tunning.cl</t>
+          <t>nicolas.garcia@tunning.cl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damian.lizana@tunning.cl/ / damian.lizana</t>
+          <t>emerson.flores@tunning.cl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ignacio.sanchez@tunning.cl// ISanchezM</t>
+          <t>felipe.torres@tunning.cl</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>humberto.galaz@tunning.cl</t>
+          <t>Damian.lizana@tunning.cl</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>benjamin.saavedra@tunning.cl</t>
+          <t>Ignacio.sanchez@tunning.cl</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>diego.abarca@tunning.cl</t>
+          <t>humberto.galaz@tunning.cl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cristian.pena@tunning.cl</t>
+          <t>benjamin.saavedra@tunning.cl</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>felipe.diaz@tunning.cl</t>
+          <t>diego.abarca@tunning.cl</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>angel.olguin@tunning.cl</t>
+          <t>cristian.pena@tunning.cl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>david.barrales@tunning.cl</t>
+          <t>felipe.diaz@tunning.cl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>emilio.leon@tunning.cl</t>
+          <t>felipe.beroiz@tunning.cl</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pablo.villalobos@tunning.cl</t>
+          <t>ignacio.cornejo@tunning.cl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>martin.vergara@tunning.cl</t>
+          <t>andrew.aracena@tunning.cl</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>felipe.beroiz@tunning.cl</t>
+          <t>pablo.madrid@tunning.cl</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ignacio.cornejo@tunning.cl</t>
+          <t>ignacio.cancino@tunning.cl</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>andrew.aracena@tunning.cl</t>
+          <t>salvador.araya@tunning.cl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pablo.madrid@tunning.cl</t>
+          <t>damian.carroza@tunning.cl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ignacio.cancino@tunning.cl</t>
+          <t>ignacio.barrera@tunning.cl</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sebastian.reyes@tunning.cl</t>
+          <t>John.bell-smythe@tunning.cl</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>salvador.araya@tunning.cl</t>
+          <t>jonathan.barria@tunning.cl</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>damian.carroza@tunning.cl</t>
+          <t>boris.jelincic@tunning.cl</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ignacio.barrera@tunning.cl</t>
+          <t>fernando.huamanchumo@tunning.cl</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>John.bell-smythe@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>jonathan.barria@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>boris.jelincic@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>maximiliano.godoy@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>braulio.vasquez@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>guido.hurtado@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>felipe.sanhueza@tunning.cl// FELIPESANHUEZAL</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Login fallido</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+          <t>Falló el inicio de sesión</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -453,31 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.70)
-Stacktrace:
-	(No symbol) [0x00007FF721D36B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72205F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF722102DE6+643190]
-	(No symbol) [0x00007FF721BF7657]
-	(No symbol) [0x00007FF721C81CE5]
-	(No symbol) [0x00007FF721C9670A]
-	(No symbol) [0x00007FF721C7BE03]
-	(No symbol) [0x00007FF721C52984]
-	(No symbol) [0x00007FF721C51E30]
-	(No symbol) [0x00007FF721C52571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200BB34+1094964]
-	(No symbol) [0x00007FF721D732C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200AF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF72200AAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E10CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E0CA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E0CB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF721E021C6+401382]
-	BaseThreadInitThunk [0x00007FF98D21E8D7+23]
-	RtlUserThreadStart [0x00007FF98F0FFBCC+44]
-</t>
+          <t>Inicio de sesión exitoso y acceso a 'My Learning'</t>
         </is>
       </c>
     </row>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Estado</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos en Progreso</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos Completados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,331 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inicio de sesión exitoso y acceso a 'My Learning'</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>braulio.vasquez@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>guido.hurtado@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>luis.rivas@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sergio.faundez@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>nicolas.jara@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>nicolas.garcia@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>emerson.flores@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>felipe.torres@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Damian.lizana@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ignacio.sanchez@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>humberto.galaz@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>benjamin.saavedra@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>diego.abarca@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cristian.pena@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>felipe.diaz@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>felipe.beroiz@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ignacio.cornejo@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>andrew.aracena@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>pablo.madrid@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ignacio.cancino@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>salvador.araya@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>damian.carroza@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ignacio.barrera@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>John.bell-smythe@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>jonathan.barria@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>boris.jelincic@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>fernando.huamanchumo@tunning.cl</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Falló el inicio de sesión</t>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Black Belt Secure Networking Presales', 'Black Belt Secure Networking Presales']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Achievements', 'There are no achievements', 'Certifications', 'There are no certificates']</t>
         </is>
       </c>
     </row>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,87 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Achievements', 'There are no achievements', 'Certifications', 'There are no certificates']</t>
+          <t>['No tiene cursos completados.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>braulio.vasquez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sin acceso, no procesado</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>guido.hurtado@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['No tiene cursos en progreso.']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['No tiene cursos completados.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>emerson.flores@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Black Belt Wireless Presales Stage 1']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['No tiene cursos completados.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fernando.huamanchumo@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Black Belt Contact Center Express Presales Stage 1', 'Black Belt Contact Center Enterprise Presales Stage 1', 'Black Belt On Prem solutions - Presales Stage 1', 'Black Belt Cloud Calling Deployment Stage 2', 'Black Belt New Hire - Intro to Cisco (EOL 01/15/25)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['No tiene cursos completados.']</t>
         </is>
       </c>
     </row>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,116 +444,1048 @@
           <t>Estado</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cursos en Progreso</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cursos Completados</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>maximiliano.godoy@tunning.cl</t>
+          <t>luis.rivas@tunning.cl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceso completado</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Black Belt Secure Networking Presales', 'Black Belt Secure Networking Presales']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['No tiene cursos completados.']</t>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>braulio.vasquez@tunning.cl</t>
+          <t>sergio.faundez@tunning.cl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sin acceso, no procesado</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>guido.hurtado@tunning.cl</t>
+          <t>nicolas.jara@tunning.cl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proceso completado</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['No tiene cursos en progreso.']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['No tiene cursos completados.']</t>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>emerson.flores@tunning.cl</t>
+          <t>nicolas.garcia@tunning.cl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proceso completado</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['Black Belt Wireless Presales Stage 1']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['No tiene cursos completados.']</t>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fernando.huamanchumo@tunning.cl</t>
+          <t>hector.albarran@tunning.cl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proceso completado</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['Black Belt Contact Center Express Presales Stage 1', 'Black Belt Contact Center Enterprise Presales Stage 1', 'Black Belt On Prem solutions - Presales Stage 1', 'Black Belt Cloud Calling Deployment Stage 2', 'Black Belt New Hire - Intro to Cisco (EOL 01/15/25)']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['No tiene cursos completados.']</t>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>emerson.flores@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Felipe.torres@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>damian.lizana@tunning.cl/ / damian.lizana</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ignacio.sanchez@tunning.cl// ISanchezM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>humberto.galaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>benjamin.saavedra@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>diego.abarca@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cristian.pena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>felipe.diaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>angel.olguin@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>david.barrales@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>emilio.leon@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pablo.villalobos@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>martin.vergara@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>felipe.beroiz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ignacio.cornejo@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>andrew.aracena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pablo.madrid@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ignacio.cancino@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sebastian.reyes@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>salvador.araya@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>damian.carroza@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ignacio.barrera@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>John.bell-smythe@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jonathan.barria@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>boris.jelincic@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>maximiliano.godoy@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>braulio.vasquez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>guido.hurtado@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=131.0.2903.146)
+Stacktrace:
+	(No symbol) [0x00007FF77A016B15]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
+	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
+	(No symbol) [0x00007FF779ED7657]
+	(No symbol) [0x00007FF779F61CE5]
+	(No symbol) [0x00007FF779F7670A]
+	(No symbol) [0x00007FF779F5BE03]
+	(No symbol) [0x00007FF779F32984]
+	(No symbol) [0x00007FF779F31E30]
+	(No symbol) [0x00007FF779F32571]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
+	(No symbol) [0x00007FF77A0532C8]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
+	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
+	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
+	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
+	RtlUserThreadStart [0x00007FF80F69FBCC+44]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>felipe.sanhueza@tunning.cl// FELIPESANHUEZAL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
     </row>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Estado</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos en Progreso</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cursos Completados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,31 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -489,33 +485,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -525,33 +499,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -561,33 +513,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,33 +527,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -633,33 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -669,33 +555,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -705,33 +569,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -741,33 +583,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -777,33 +597,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -813,33 +611,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -849,33 +625,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -888,6 +642,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -900,6 +656,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -909,33 +667,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -948,6 +684,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -957,33 +695,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -996,6 +712,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1005,33 +723,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1044,6 +740,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1053,33 +751,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1089,33 +765,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1125,33 +779,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1164,6 +796,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1173,33 +807,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1209,33 +821,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1245,33 +835,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1284,6 +852,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1293,33 +863,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1332,6 +880,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1341,33 +891,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1377,33 +905,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1413,33 +919,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1449,33 +933,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error inesperado: Message: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: MicrosoftEdge=131.0.2903.146)
-Stacktrace:
-	(No symbol) [0x00007FF77A016B15]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A33F4A4+1437348]
-	sqlite3_dbdata_init [0x00007FF77A3E2DE6+643190]
-	(No symbol) [0x00007FF779ED7657]
-	(No symbol) [0x00007FF779F61CE5]
-	(No symbol) [0x00007FF779F7670A]
-	(No symbol) [0x00007FF779F5BE03]
-	(No symbol) [0x00007FF779F32984]
-	(No symbol) [0x00007FF779F31E30]
-	(No symbol) [0x00007FF779F32571]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EBB34+1094964]
-	(No symbol) [0x00007FF77A0532C8]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAF73+1091955]
-	Microsoft::Applications::Events::EventProperty::empty [0x00007FF77A2EAAD9+1090777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0F0CE1+461569]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECA04+444452]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0ECB49+444777]
-	Microsoft::Applications::Events::ILogConfiguration::operator* [0x00007FF77A0E21C6+401382]
-	BaseThreadInitThunk [0x00007FF80E26E8D7+23]
-	RtlUserThreadStart [0x00007FF80F69FBCC+44]
-</t>
-        </is>
-      </c>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1488,6 +950,8 @@
           <t>Faltan datos (correo, contraseña o clave TOTP)</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/results/platforms.xlsx
+++ b/data/results/platforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{'Nombre': 'Introduction to TIA - Hardware Configuration with TIA Portal', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Introduction to TIA - Programming with TIA Portal', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PROFIBUS in process automation - the basics (WT-PCS7PB)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PTM Webinar - High availability with TIA', 'Estado': 'IN PROGRESS'}]</t>
+          <t>[{'Nombre': 'Introduction to TIA - Hardware Configuration with TIA Portal', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Introduction to TIA - Programming with TIA Portal', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Onboarding Training OT Cybersecurity (Part 1)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PROFIBUS in process automation - the basics (WT-PCS7PB)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PTM Webinar - High availability with TIA', 'Estado': 'IN PROGRESS'}]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,6 +476,580 @@
           <t>[{'Nombre': 'Introduction to TIA - Controller Hardware Portfolio, Tools', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PCS 7 on Tour - Chapter 0 - PCS 7 Basic Tutorials Intro', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PCS 7 on Tour - Chapter 1 - System Overview', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PCS 7 on Tour - Chapter 2 - SIMATIC Manager', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PROFINET - Functional Overview', 'Estado': 'SUCCESSFUL'}]</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sergio.faundez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nicolas.jara@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Drive Data Analytics with your SINAMICS Drive Data on the Industrial Edge Platform � fast and secure Data Analysis', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nicolas.garcia@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hector.albarran@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Introduction to TIA - Programming with TIA Portal', 'Estado': 'EN CURSO'}]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>emerson.flores@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Automation Systems', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Drive Data Analytics with your SINAMICS Drive Data on the Industrial Edge Platform � fast and secure Data Analysis', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Felipe.torres@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'PCS 7 on Tour', 'Estado': 'ACQUIRED'}, {'Nombre': 'SIMATIC PCS 7 Basic - Assessment', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>damian.lizana@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ignacio.sanchez@tunning.cl// ISanchezM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>humberto.galaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>benjamin.saavedra@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Automation Systems', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PCS 7 on Tour', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PROFIBUS in process automation - the basics (WT-PCS7PB)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'SIMIT for Process Automation - Basic Online Training (SOP)', 'Estado': 'ASSIGNED'}]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>diego.abarca@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Basic principles of electrical engineering (WT-LVBGET)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Individual Certification „Associate in Industrial Networks” (AIIN)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Security', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Learning Path - Industrial Strength Networks - System Integrator / SOP', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PCS 7 on Tour', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PTM Webinar - WinCC V8.0 Release News', 'Estado': 'IN PROGRESS'}, {'Nombre': 'S7-1500R/H (Curriculum - TIA Portal V17)', 'Estado': 'ASSIGNED'}, {'Nombre': "Siemens' Strength in Cybersecurity", 'Estado': 'IN PROGRESS'}, {'Nombre': 'SIMATIC PCS 7 Basic - Assessment', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Expert Days WinCC Unified - Basis', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - WinCC V8.0 Release News', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cristian.pena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>felipe.diaz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>angel.olguin@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Certification Test - Approved Partner - Drives &amp; Motion', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Connected Home – Getting Started', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Security', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Automation Systems', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>david.barrales@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>emilio.leon@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Login fallido</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pablo.villalobos@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>martin.vergara@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Industrial Communication', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Introduction to TIA - Programming with TIA Portal', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Introduction to TIA - TIA Portal Options', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PROFINET (WT-PROFIN)', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'PCS 7 on Tour - Chapter 0 - PCS 7 Basic Tutorials Intro', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'SIMATIC PCS 7 Basic - Assessment', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>felipe.beroiz@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ignacio.cornejo@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Entry into WinCC Unified', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Entry into WinCC Unified', 'Estado': 'IN PROGRESS'}, {'Nombre': 'PTM Webinar - Introduction and deep dive into Industrial Cybersecurity (Part I)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'WinCC Unified - Part 1: General Handling', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'GMC Webinar: "Super-bros: the new SINAMICS S210 &amp; S200 � experience our future-proof and innovative servo drive systems"', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - Easy robot programming with SIMATIC &amp; Robot AI-Skills for unknown item handling', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - Introduction and deep dive into Industrial Cybersecurity (Part II)', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - WinCC Unified V19 - Update', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'TIA Portal V19 Training - Security', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>andrew.aracena@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Drive Data Analytics with your SINAMICS Drive Data on the Industrial Edge Platform � fast and secure Data Analysis', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Entry into WinCC Unified', 'Estado': 'IN PROGRESS'}, {'Nombre': 'WinCC Unified - Part 1: General Handling', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Advanced Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Basic Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion (up to 250kW) - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion (up to 250kW) - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Factory Automation - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Industrial Communications - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - Optimized PLC programming considering usability and performance', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - WinCC Unified V19 - Update', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'PTM Webinar - WinCC Unified V19 - Update', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'TIA Portal V19 Training - Security', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pablo.madrid@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Control Panel Design Software - Webinar', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Entry into WinCC Unified', 'Estado': 'IN PROGRESS'}, {'Nombre': 'World of Digital Industries', 'Estado': 'IN PROGRESS'}, {'Nombre': 'World of Digital Industries', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Advanced Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Basic Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion (up to 250kW) - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Factory Automation - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Industrial Communications - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ignacio.cancino@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sebastian.reyes@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Flow Basic', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Functional Safety - Basics', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Communication', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Edge - Application development (Curriculum)', 'Estado': 'ASSIGNED'}, {'Nombre': 'Industrial Edge - At a glance', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Edge - Simple setup of the platform (Tutorial)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Industrial Edge - Working with applications', 'Estado': 'IN PROGRESS'}, {'Nombre': 'Introduction to TIA (Curriculum)', 'Estado': 'IN PROGRESS'}, {'Nombre': 'SIMATIC HMI hardware portfolio', 'Estado': 'IN PROGRESS'}, {'Nombre': 'SIMATIC PCS 7 Industry Library (SOP)', 'Estado': 'ASSIGNED'}]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Advanced Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Automation Systems', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Basic Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion (up to 250kW) - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Factory Automation - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Industrial Communications - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Industrial Security', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Level Basic', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'SIMATIC - Basics of Programmable Logic Controllers (PLC)', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'SIMIT for Process Automation - Basic Online Training (SOP)', 'Estado': 'ACQUIRED'}, {'Nombre': 'Temperature Basic', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>salvador.araya@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Entry into WinCC Unified', 'Estado': 'IN PROGRESS'}]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Advanced Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Basic Factory Automation - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion (up to 250kW) - Self Assessment - APP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Drives &amp; Motion - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Factory Automation - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Identification &amp; Locating - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}, {'Nombre': 'Industrial Communications - Self Assessment - SOP', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>damian.carroza@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ignacio.barrera@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>John.bell-smythe@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Proceso completado</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'Introduction to TIA (Curriculum)', 'Estado': 'ASSIGNED'}]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[{'Nombre': 'SPOTLIGHT: SIMATIC S7-1200 - Programming', 'Estado': 'SUCCESSFUL'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jonathan.barria@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Faltan datos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>boris.jelincic@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>maximiliano.godoy@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>braulio.vasquez@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>guido.hurtado@tunning.cl</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sin cursos asignados</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
